--- a/User_Behavior.xlsx
+++ b/User_Behavior.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeadInnovationz\Task_29\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF97297F-A632-426E-AD0A-21447A8D9115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCF88DC-221A-48D2-80D0-E087B4EE5B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="168" yWindow="384" windowWidth="22872" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
